--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,900 +451,690 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>gemini-pro</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gemma-7b-it</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>gemma-2b-it</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gemma-7b-it</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gemini-pro</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fon</t>
+          <t>amharic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PivotLang_fon_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fon</t>
+          <t>arabic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PivotLang_fon_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>0.054</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hau</t>
+          <t>azerbaijani</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PivotLang_hau_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hau</t>
+          <t>bengali</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PivotLang_hau_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3864734299516909</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ibo</t>
+          <t>burmese</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PivotLang_ibo_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ibo</t>
+          <t>chinese_simplified</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PivotLang_ibo_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.026</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>swa</t>
+          <t>chinese_traditional</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>PivotLang_swa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
+        <v>0.028</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>swa</t>
+          <t>english</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3894179894179894</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PivotLang_swa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>0.001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>zul</t>
+          <t>french</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>PivotLang_zul_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>afriqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>zul</t>
+          <t>hausa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>PivotLang_zul_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arabic</t>
+          <t>hindi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>PivotLang_arabic_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0.024</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4566666666666667</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chinese_simplified</t>
+          <t>igbo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4122222222222222</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>PivotLang_chinese_simplified_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5766666666666667</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9144444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chinese_traditional</t>
+          <t>indonesian</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3922222222222222</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>PivotLang_chinese_traditional_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5711111111111111</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9033333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>czech</t>
+          <t>japanese</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>PivotLang_czech_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5388888888888889</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9044444444444445</v>
-      </c>
+        <v>0.021</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>danish</t>
+          <t>kirundi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>PivotLang_danish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5088888888888888</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8977777777777778</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dutch</t>
+          <t>korean</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3588888888888889</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>PivotLang_dutch_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.4911111111111111</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8888888888888888</v>
-      </c>
+        <v>0.075</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>kyrgyz</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>PivotLang_english_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6633333333333333</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.9077777777777778</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>finnish</t>
+          <t>nepali</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3477777777777778</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>PivotLang_finnish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8933333333333333</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>french</t>
+          <t>oromo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PivotLang_french_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.8977777777777778</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>german</t>
+          <t>pashto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3466666666666667</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>PivotLang_german_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.5533333333333333</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8877777777777778</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hebrew</t>
+          <t>persian</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3166666666666667</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>PivotLang_hebrew_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4466666666666667</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.88</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hungarian</t>
+          <t>pidgin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2911111111111111</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PivotLang_hungarian_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8822222222222222</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>italian</t>
+          <t>portuguese</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3733333333333334</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PivotLang_italian_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5633333333333334</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8933333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>japanese</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3577777777777778</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PivotLang_japanese_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0.045</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4744444444444444</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.8688888888888889</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>korean</t>
+          <t>scottish_gaelic</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.3644444444444445</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>PivotLang_korean_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.8788888888888889</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>norwegian</t>
+          <t>serbian_cyrillic</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>PivotLang_norwegian_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5344444444444445</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.8877777777777778</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>serbian_latin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>PivotLang_polish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.8811111111111111</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>portuguese</t>
+          <t>sinhala</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2766666666666667</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>PivotLang_portuguese_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5844444444444444</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.8944444444444445</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>somali</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>PivotLang_russian_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.5622222222222222</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8911111111111111</v>
-      </c>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1354,383 +1144,306 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3922222222222222</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>PivotLang_spanish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8933333333333333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>swedish</t>
+          <t>swahili</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3622222222222222</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>PivotLang_swedish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0.001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5255555555555556</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>thai</t>
+          <t>tamil</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>PivotLang_thai_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0.007</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4755555555555556</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.8344444444444444</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>belebele</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>turkish</t>
+          <t>thai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>PivotLang_turkish_PromptName_Choose the correct answer_FewShotK_0</t>
-        </is>
+        <v>0.028</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4144444444444444</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.8411111111111111</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>gluecos_nli</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>english-hindi</t>
+          <t>tigrinya</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_GPT-3 style_FewShotK_8</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0.8080357142857143</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>gluecos_sentiment</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>english-hindi</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_following positive negative neutral_FewShotK_8</t>
-        </is>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>0.2943722943722944</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>ukrainian</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.111794298490777</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>PivotLang_as_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3.018446059250978</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>0.049</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>urdu</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>5.477920626048071</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>PivotLang_as_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0.005</v>
       </c>
       <c r="F38" t="n">
-        <v>12.57685858021241</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>uzbek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2.037534610198175</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PivotLang_as_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8.332517268674053</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>vietnamese</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>ROUGE-L</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6.604766096252523</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PivotLang_as_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>19.07590323930974</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>welsh</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4537719795802609</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>4.367555303460011</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>XLSum</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>yoruba</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>2.949517867271696</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>14.91775382870108</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>ROUGE-L</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>fon</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2.775239251220343</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
-      </c>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>10.04334185084428</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>fon</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1738,115 +1451,93 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>4.477752739335431</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>21.92565700003274</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>hau</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7436787307882995</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>PivotLang_gu_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3.668815071888944</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>hau</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>9.568666336142787</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>PivotLang_gu_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0.386</v>
       </c>
       <c r="F46" t="n">
-        <v>20.07932573128409</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>ibo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1.499420020348902</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>PivotLang_gu_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>5.349166009965299</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>ibo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1854,115 +1545,95 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>10.09502952723734</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>PivotLang_gu_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>22.18160971649274</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>swa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0.7110536522301228</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>9.95475113122172</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>swa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>exact</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1.809954751131222</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0.449</v>
       </c>
       <c r="F50" t="n">
-        <v>21.78409825468649</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>0.389</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>zul</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>5.266714775652699</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>18.44930354473504</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>afriqa</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>zul</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1970,743 +1641,655 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>5.867592600469709</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>31.9597649419029</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>arabic</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.911667765326302</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>PivotLang_kn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.89</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.457</v>
       </c>
       <c r="F53" t="n">
-        <v>4.878048780487805</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>0.361</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>chinese_simplified</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11.60184574818721</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>PivotLang_kn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.914</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.577</v>
       </c>
       <c r="F54" t="n">
-        <v>17.40276862228082</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>chinese_traditional</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3.352141989351476</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>PivotLang_kn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.903</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.571</v>
       </c>
       <c r="F55" t="n">
-        <v>8.587138217568194</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>0.392</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>czech</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12.64950901681053</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>PivotLang_kn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.904</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.539</v>
       </c>
       <c r="F56" t="n">
-        <v>21.84380954908782</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>danish</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.6293266205160478</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>PivotLang_ml_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.898</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.509</v>
       </c>
       <c r="F57" t="n">
-        <v>1.825047199496539</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>0.34</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>dutch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.957835116425425</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>PivotLang_ml_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.889</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.491</v>
       </c>
       <c r="F58" t="n">
-        <v>12.64946507237256</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>0.359</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>english</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.03622748506096</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>PivotLang_ml_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.908</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.663</v>
       </c>
       <c r="F59" t="n">
-        <v>3.754845593757486</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>0.422</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>finnish</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.020313408991595</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>PivotLang_ml_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.893</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.478</v>
       </c>
       <c r="F60" t="n">
-        <v>15.55044271853329</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>0.348</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>french</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1870324189526185</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>PivotLang_mr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.898</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5669999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>5.548628428927681</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>german</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.927680798004987</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>PivotLang_mr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.888</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.553</v>
       </c>
       <c r="F62" t="n">
-        <v>16.39650872817955</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>0.347</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>hebrew</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2.81402538208741</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>PivotLang_mr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.88</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.447</v>
       </c>
       <c r="F63" t="n">
-        <v>11.6856675116418</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>0.317</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>hungarian</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.488536642017987</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>PivotLang_mr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.882</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.46</v>
       </c>
       <c r="F64" t="n">
-        <v>22.54726695267902</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>0.291</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>italian</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>PivotLang_or_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.893</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5629999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05952380952380952</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>0.373</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>japanese</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.261904761904762</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>PivotLang_or_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.869</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.474</v>
       </c>
       <c r="F66" t="n">
-        <v>7.440476190476191</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>0.358</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>korean</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.008073344280240832</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>PivotLang_or_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.879</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.46</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06362889983579638</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>0.364</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>norwegian</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.26686507936508</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>PivotLang_or_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.888</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.534</v>
       </c>
       <c r="F68" t="n">
-        <v>7.486772486772487</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>0.34</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.648508430609598</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>PivotLang_pa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.881</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.511</v>
       </c>
       <c r="F69" t="n">
-        <v>3.955901426718547</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>portuguese</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5.058365758754864</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>PivotLang_pa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.894</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.584</v>
       </c>
       <c r="F70" t="n">
-        <v>15.04539559014267</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>0.277</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>russian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.098676375300749</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>PivotLang_pa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.891</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5620000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>7.062110930610076</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>spanish</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7.669178992819603</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>PivotLang_pa_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.893</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.578</v>
       </c>
       <c r="F72" t="n">
-        <v>19.41645737374189</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>0.392</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>swedish</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.330376940133038</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.889</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.526</v>
       </c>
       <c r="F73" t="n">
-        <v>7.150776053215077</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+        <v>0.362</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>thai</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.383592017738359</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+        <v>0.834</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.476</v>
       </c>
       <c r="F74" t="n">
-        <v>18.12638580931264</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+        <v>0.367</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>belebele</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>turkish</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5.621336949244624</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+        <v>0.841</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.414</v>
       </c>
       <c r="F75" t="n">
-        <v>12.64481843961531</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>gluecos_nli</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>english-hindi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5.622540783470951</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>24.28861391911066</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>indicqa</t>
+          <t>gluecos_sentiment</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>english-hindi</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7497116493656286</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>4.901960784313726</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+        <v>0.294</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2716,7 +2299,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2724,18 +2307,13 @@
           <t>exact</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>2.537485582468281</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0.126</v>
       </c>
       <c r="F78" t="n">
-        <v>12.62975778546713</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>0.055</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2745,7 +2323,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2753,18 +2331,13 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>2.247414753638631</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4_with_unanswerable</t>
-        </is>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0.191</v>
       </c>
       <c r="F79" t="n">
-        <v>6.67702185798376</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>0.066</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2774,92 +2347,79 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>3.386566585311396</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8_with_unanswerable</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0.149</v>
       </c>
       <c r="F80" t="n">
-        <v>15.1939934479819</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>0.029</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="n">
-        <v>21.66344294003868</v>
+      <c r="E81" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.045</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>gu</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>6.963249516441006</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0.201</v>
       </c>
       <c r="F82" t="n">
-        <v>16.0541586073501</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>0.096</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>gu</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2868,110 +2428,94 @@
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="n">
-        <v>38.93468906685774</v>
+      <c r="E83" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>16.47146467623379</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>0.218</v>
       </c>
       <c r="F84" t="n">
-        <v>30.28678371748884</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>0.018</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="n">
-        <v>46.2890625</v>
+      <c r="E85" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.059</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>16.015625</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>0.174</v>
       </c>
       <c r="F86" t="n">
-        <v>40.0390625</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>0.116</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2980,172 +2524,142 @@
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="n">
-        <v>61.40875899832756</v>
+      <c r="E87" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>31.13563930702606</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0.126</v>
       </c>
       <c r="F88" t="n">
-        <v>56.0475258201017</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>20.73170731707317</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0.156</v>
       </c>
       <c r="F89" t="n">
-        <v>53.48432055749129</v>
-      </c>
-      <c r="G89" t="n">
-        <v>66.37630662020906</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>mr</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>43.37233115173211</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0.164</v>
       </c>
       <c r="F90" t="n">
-        <v>71.98988799336566</v>
-      </c>
-      <c r="G90" t="n">
-        <v>78.23557140954983</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>mr</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0.225</v>
       </c>
       <c r="F91" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>0.055</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>or</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="n">
-        <v>48.4</v>
+      <c r="E92" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>or</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3153,111 +2667,95 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>36.59953433634944</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>0.075</v>
       </c>
       <c r="F93" t="n">
-        <v>58.39142046060147</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>0.023</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="n">
-        <v>69.88878043855512</v>
+      <c r="E94" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>8.678500986193294</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>0.194</v>
       </c>
       <c r="F95" t="n">
-        <v>24.45759368836292</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+        <v>0.077</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="n">
-        <v>47.33727810650888</v>
+      <c r="E96" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.024</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3265,74 +2763,61 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>18.40313650613838</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0.243</v>
       </c>
       <c r="F97" t="n">
-        <v>40.72727925491323</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+        <v>0.056</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>te</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="n">
-        <v>63.25899525988124</v>
+      <c r="E98" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.025</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mlqa</t>
+          <t>indicqa</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>te</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>13.89432485322896</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0.152</v>
       </c>
       <c r="F99" t="n">
-        <v>38.35616438356164</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>0.034</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3342,7 +2827,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3350,15 +2835,14 @@
           <t>exact_match</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="n">
-        <v>51.2720156555773</v>
+      <c r="D100" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -3369,7 +2853,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3378,17 +2862,14 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>32.01221308482639</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.389</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.303</v>
       </c>
       <c r="F101" t="n">
-        <v>60.54890031779988</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>0.165</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3398,23 +2879,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="n">
-        <v>70.97429090474996</v>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="103">
@@ -3425,26 +2905,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.587301587301587</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.614</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>0.311</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3454,7 +2931,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3462,15 +2939,14 @@
           <t>exact_match</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="n">
-        <v>7.53968253968254</v>
+      <c r="D104" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.207</v>
       </c>
     </row>
     <row r="105">
@@ -3481,7 +2957,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3490,17 +2966,14 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5.102773042963584</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.782</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.72</v>
       </c>
       <c r="F105" t="n">
-        <v>9.058151647275317</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+        <v>0.434</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3510,212 +2983,204 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="n">
-        <v>10.32218442932728</v>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.172</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="n">
-        <v>0.4779319041614123</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.366</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>PivotLang_bg_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="n">
-        <v>0.4533969010727056</v>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="n">
-        <v>0.4176920518789491</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.184</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="n">
-        <v>0.3498975409836065</v>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>PivotLang_el_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="n">
-        <v>0.4672995780590717</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="n">
-        <v>0.3413437959784208</v>
+          <t>exact_match</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>panx</t>
+          <t>mlqa</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>f1-score</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>0.3450356555128909</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="114">
@@ -3726,7 +3191,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3734,16 +3199,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>PivotLang_et_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D114" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="n">
-        <v>0.4431848852901484</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3753,7 +3213,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>bg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3761,16 +3221,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>PivotLang_fi_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D115" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="n">
-        <v>0.4633077765607886</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3780,7 +3235,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3788,16 +3243,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>PivotLang_fr_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D116" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="n">
-        <v>0.4059462550028587</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3807,7 +3257,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3815,16 +3265,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>PivotLang_he_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="n">
-        <v>0.3784870570495099</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3834,7 +3279,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>el</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3842,16 +3287,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D118" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="n">
-        <v>0.4515727187791965</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3861,7 +3301,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>hu</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3869,16 +3309,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>PivotLang_hu_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D119" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="n">
-        <v>0.2503646086533787</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3888,7 +3323,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3896,16 +3331,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>PivotLang_id_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D120" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="n">
-        <v>0.4614446814995428</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3915,7 +3345,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>et</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3923,16 +3353,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>PivotLang_it_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D121" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="n">
-        <v>0.5339805825242718</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3942,7 +3367,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3950,16 +3375,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>PivotLang_ja_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D122" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="n">
-        <v>0.06074916818718472</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3969,7 +3389,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3977,16 +3397,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>PivotLang_ko_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D123" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="n">
-        <v>0.3569903948772678</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3996,7 +3411,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>lt</t>
+          <t>he</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4004,16 +3419,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>PivotLang_lt_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D124" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="n">
-        <v>0.5502793296089387</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4023,7 +3433,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4031,16 +3441,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>PivotLang_nl_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D125" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="n">
-        <v>0.5404268109407876</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4050,7 +3455,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>hu</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4058,16 +3463,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>PivotLang_pl_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D126" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="n">
-        <v>0.4933730051393022</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4077,7 +3477,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4085,16 +3485,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>PivotLang_pt_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D127" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="n">
-        <v>0.4512735326688815</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4104,7 +3499,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4112,16 +3507,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>PivotLang_ro_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D128" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="n">
-        <v>0.4065533980582525</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4131,7 +3521,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4139,16 +3529,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D129" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="n">
-        <v>0.3875395987328406</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4158,7 +3543,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4166,16 +3551,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D130" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="n">
-        <v>0.5748373101952277</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4185,7 +3565,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>lt</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4193,16 +3573,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>PivotLang_th_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D131" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="n">
-        <v>0.01107192285369882</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4212,7 +3587,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4220,16 +3595,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>PivotLang_tr_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D132" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="n">
-        <v>0.5611333538651062</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4239,7 +3609,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>uk</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4247,16 +3617,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>PivotLang_uk_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D133" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="n">
-        <v>0.3769520732364028</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4266,7 +3631,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4274,16 +3639,11 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D134" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="n">
-        <v>0.4755346139905763</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4293,7 +3653,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4301,201 +3661,148 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_structure_prompting_chat_wth_instruct_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
+      <c r="D135" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="n">
-        <v>0.07898032859353128</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.768688293370945</v>
-      </c>
+        <v>0.388</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.8004569687738005</v>
-      </c>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>th</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.5385</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.7643821910955477</v>
-      </c>
+        <v>0.011</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.5495</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>PivotLang_fr_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>0.5235</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.7566938300349243</v>
-      </c>
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>uk</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>PivotLang_ja_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.6735</v>
-      </c>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>PivotLang_ko_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.6575</v>
-      </c>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>pawsx</t>
+          <t>panx</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4505,239 +3812,191 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.5385</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_PAWS-ANLI GPT3_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>0.4835</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.724</v>
-      </c>
+        <v>0.079</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15.85233441910966</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.769</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.516</v>
       </c>
       <c r="F143" t="n">
-        <v>37.56786102062975</v>
-      </c>
-      <c r="G143" t="n">
-        <v>54.07166123778502</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>43.60322391634344</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.579</v>
       </c>
       <c r="F144" t="n">
-        <v>61.72650212793491</v>
-      </c>
-      <c r="G144" t="n">
-        <v>63.72921086891905</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4.424778761061947</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4</t>
-        </is>
+        <v>0.764</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.57</v>
       </c>
       <c r="F145" t="n">
-        <v>32.74336283185841</v>
-      </c>
-      <c r="G145" t="n">
-        <v>66.3716814159292</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>20.5046035577009</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_4</t>
-        </is>
+        <v>0.757</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.523</v>
       </c>
       <c r="F146" t="n">
-        <v>52.12766338872534</v>
-      </c>
-      <c r="G146" t="n">
-        <v>75.08159981611308</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>29.54545454545455</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>51.59090909090909</v>
-      </c>
-      <c r="G147" t="n">
-        <v>59.31818181818182</v>
-      </c>
+        <v>0.673</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>51.85550951949926</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>68.22985505811455</v>
-      </c>
-      <c r="G148" t="n">
-        <v>71.21906847676753</v>
-      </c>
+        <v>0.657</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tydiqa</t>
+          <t>pawsx</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>30.81841432225064</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>PivotLang_fi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.724</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.483</v>
       </c>
       <c r="F149" t="n">
-        <v>53.45268542199489</v>
-      </c>
-      <c r="G149" t="n">
-        <v>60.74168797953964</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="150">
@@ -4748,27 +4007,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49.1312141997677</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>PivotLang_fi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.541</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.376</v>
       </c>
       <c r="F150" t="n">
-        <v>68.01144372255061</v>
-      </c>
-      <c r="G150" t="n">
-        <v>68.79280208635494</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="151">
@@ -4779,27 +4033,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>20.35398230088495</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>PivotLang_id_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.637</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.617</v>
       </c>
       <c r="F151" t="n">
-        <v>53.45132743362832</v>
-      </c>
-      <c r="G151" t="n">
-        <v>64.24778761061947</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="152">
@@ -4810,27 +4059,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>43.60088536733675</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>PivotLang_id_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.664</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.327</v>
       </c>
       <c r="F152" t="n">
-        <v>71.33322865414297</v>
-      </c>
-      <c r="G152" t="n">
-        <v>75.04043137878185</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="153">
@@ -4841,27 +4085,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22.82608695652174</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>PivotLang_ko_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.751</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.521</v>
       </c>
       <c r="F153" t="n">
-        <v>52.53623188405797</v>
-      </c>
-      <c r="G153" t="n">
-        <v>65.57971014492753</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="154">
@@ -4872,27 +4111,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>39.35981117746365</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>PivotLang_ko_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.593</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.516</v>
       </c>
       <c r="F154" t="n">
-        <v>64.52252604017644</v>
-      </c>
-      <c r="G154" t="n">
-        <v>73.96319959883289</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="155">
@@ -4903,27 +4137,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15.64039408866995</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.712</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6820000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>31.40394088669951</v>
-      </c>
-      <c r="G155" t="n">
-        <v>48.89162561576354</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="156">
@@ -4934,27 +4163,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>39.65796411194289</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.607</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.535</v>
       </c>
       <c r="F156" t="n">
-        <v>52.51347178694716</v>
-      </c>
-      <c r="G156" t="n">
-        <v>60.84652460169703</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="157">
@@ -4965,27 +4189,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>44.68937875751503</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.68</v>
       </c>
       <c r="F157" t="n">
-        <v>62.92585170340681</v>
-      </c>
-      <c r="G157" t="n">
-        <v>73.14629258517034</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="158">
@@ -4996,213 +4215,184 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>57.41356824405606</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.642</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.535</v>
       </c>
       <c r="F158" t="n">
-        <v>75.13675006938752</v>
-      </c>
-      <c r="G158" t="n">
-        <v>79.74718254482994</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_plausible_alternatives_discrete_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="n">
-        <v>0.99</v>
+        <v>0.75</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.436</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>PivotLang_et_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
+        <v>0.656</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.525</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.962</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ht</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>PivotLang_ht_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
+        <v>0.74</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.645</v>
       </c>
       <c r="F161" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+        <v>0.394</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>PivotLang_id_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
+        <v>0.489</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.314</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.958</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>PivotLang_it_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
+        <v>0.608</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.525</v>
       </c>
       <c r="F163" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.976</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>qu</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>PivotLang_qu_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
+        <v>0.731</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.629</v>
       </c>
       <c r="F164" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>0.447</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>tydiqa</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5212,778 +4402,578 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.797</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.574</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+        <v>0.239</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>bg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>PivotLang_th_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.95</v>
-      </c>
+        <v>0.704</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.5127272727272727</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>PivotLang_tr_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
+        <v>0.666</v>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="n">
-        <v>0.96</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>el</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>0.309</v>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>xcopa</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_plausible_alternatives_discrete_FewShotK_8_use_val_to_prompt</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
+        <v>0.591</v>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.4852295409181637</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>0.4640718562874251</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.6784178847807395</v>
-      </c>
+        <v>0.241</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>et</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.3898203592814371</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>PivotLang_as_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>0.4435129740518962</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>bg</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.4786427145708583</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>PivotLang_bg_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>0.5227544910179641</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.7502994011976047</v>
-      </c>
+        <v>0.785</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>bn</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.4083832335329342</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>PivotLang_bn_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F174" t="n">
-        <v>0.4746506986027944</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+        <v>0.844</v>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>he</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.4546906187624751</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F175" t="n">
-        <v>0.5263473053892216</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.7578842315369262</v>
-      </c>
+        <v>0.512</v>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.4706586826347305</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>PivotLang_el_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F176" t="n">
-        <v>0.4982035928143713</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.7271457085828343</v>
-      </c>
+        <v>0.477</v>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>hu</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.5069860279441117</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F177" t="n">
-        <v>0.5692614770459082</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.7904191616766467</v>
-      </c>
+        <v>0.345</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.4692614770459082</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F178" t="n">
-        <v>0.5203592814371257</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.7646706586826347</v>
-      </c>
+        <v>0.518</v>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.4419161676646707</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>PivotLang_fr_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F179" t="n">
-        <v>0.5269461077844312</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.7351297405189621</v>
-      </c>
+        <v>0.613</v>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.4135728542914172</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>PivotLang_gu_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F180" t="n">
-        <v>0.4530938123752495</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
+        <v>0.445</v>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>lt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.4846307385229541</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>0.4572854291417165</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.6808383233532934</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.394810379241517</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>PivotLang_kn_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F182" t="n">
-        <v>0.46187624750499</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
+        <v>0.629</v>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.3998003992015968</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>PivotLang_ml_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F183" t="n">
-        <v>0.4626746506986028</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
+        <v>0.805</v>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>mr</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.4077844311377246</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>PivotLang_mr_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>0.4383233532934132</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
+        <v>0.502</v>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.3287425149700599</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>PivotLang_or_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F185" t="n">
-        <v>0.3365269461077844</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.4085828343313374</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>PivotLang_pa_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F186" t="n">
-        <v>0.4582834331337325</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+        <v>0.545</v>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.4986027944111777</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>0.5043912175648703</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.7225548902195609</v>
-      </c>
+        <v>0.755</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>uk</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.3890219560878244</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>0.4331337325349301</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.6708582834331337</v>
-      </c>
+        <v>0.426</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.4119760479041916</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>PivotLang_ta_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F189" t="n">
-        <v>0.4564870259481038</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
+        <v>0.752</v>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>udpos</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1-score</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.4207584830339322</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>0.4576846307385229</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
+        <v>0.449</v>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5992,29 +4982,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>PivotLang_th_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
-        <v>0.4872255489021956</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.6203592814371257</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>et</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6023,29 +5006,24 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.4528942115768463</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>PivotLang_tr_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
+        <v>0.962</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.606</v>
       </c>
       <c r="F192" t="n">
-        <v>0.468063872255489</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.7223552894211577</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ur</t>
+          <t>ht</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6053,28 +5031,23 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>0.4499001996007984</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>PivotLang_ur_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>0.486</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4383233532934132</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6083,29 +5056,24 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.4960079840319361</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
+        <v>0.958</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.6919999999999999</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4898203592814371</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.6790419161676646</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>xnli</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6114,391 +5082,345 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.5239520958083832</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_GPT-3 style_FewShotK_8_temperature_0.0</t>
-        </is>
+        <v>0.976</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.738</v>
       </c>
       <c r="F195" t="n">
-        <v>0.474251497005988</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.6614770459081837</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>qu</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="n">
-        <v>52.6890756302521</v>
+      <c r="E196" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2.184873949579832</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.496</v>
       </c>
       <c r="F197" t="n">
-        <v>24.28571428571428</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="n">
-        <v>68.76674812792218</v>
+      <c r="E198" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>th</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>14.8133413663859</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.95</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.614</v>
       </c>
       <c r="F199" t="n">
-        <v>42.39113640109605</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
+        <v>0.498</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="n">
-        <v>56.72268907563025</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.513</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>4.873949579831932</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>0.728</v>
       </c>
       <c r="F201" t="n">
-        <v>41.84873949579832</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
+        <v>0.506</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xcopa</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>PivotLang_de_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="n">
-        <v>73.7378409648832</v>
+      <c r="E202" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.514</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>18.20620883191606</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.678</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.464</v>
       </c>
       <c r="F203" t="n">
-        <v>60.57510672701298</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
+        <v>0.485</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>as</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>PivotLang_el_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="n">
-        <v>52.35294117647059</v>
+      <c r="E204" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>bg</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>6.974789915966387</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.75</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.523</v>
       </c>
       <c r="F205" t="n">
-        <v>28.31932773109244</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
+        <v>0.479</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>bn</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>PivotLang_el_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="n">
-        <v>67.88221166706082</v>
+      <c r="E206" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.408</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>17.67746634373932</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.758</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.526</v>
       </c>
       <c r="F207" t="n">
-        <v>44.41291555335857</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
+        <v>0.455</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>el</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.80672268907563</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.727</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.498</v>
       </c>
       <c r="F208" t="n">
-        <v>56.30252100840336</v>
-      </c>
-      <c r="G208" t="n">
-        <v>72.18487394957984</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6508,28 +5430,23 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>24.00476819666131</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.79</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.569</v>
       </c>
       <c r="F209" t="n">
-        <v>73.27447744319012</v>
-      </c>
-      <c r="G209" t="n">
-        <v>83.14090879619806</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6539,495 +5456,441 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>3.361344537815126</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.765</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.52</v>
       </c>
       <c r="F210" t="n">
-        <v>38.15126050420168</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
+        <v>0.469</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="n">
-        <v>59.57983193277311</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.442</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>gu</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>19.65957239373475</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>0.453</v>
       </c>
       <c r="F212" t="n">
-        <v>64.55143770973588</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
+        <v>0.414</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="n">
-        <v>77.1431174403784</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.485</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>3.025210084033613</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>0.462</v>
       </c>
       <c r="F214" t="n">
-        <v>25.63025210084034</v>
-      </c>
-      <c r="G214" t="inlineStr"/>
+        <v>0.395</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="n">
-        <v>57.22689075630252</v>
+      <c r="E215" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>mr</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>10.80596502841244</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>0.438</v>
       </c>
       <c r="F216" t="n">
-        <v>41.41143726015697</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
+        <v>0.408</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>or</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="n">
-        <v>71.5908205812497</v>
+      <c r="E217" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.329</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>2.689075630252101</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>0.458</v>
       </c>
       <c r="F218" t="n">
-        <v>41.34453781512605</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
+        <v>0.409</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>PivotLang_ro_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="n">
-        <v>62.18487394957983</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.499</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>17.75701885397446</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.671</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.433</v>
       </c>
       <c r="F220" t="n">
-        <v>59.88456261777742</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
+        <v>0.389</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>PivotLang_ro_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="n">
-        <v>75.22855369650414</v>
+      <c r="E221" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.412</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>te</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2.605042016806723</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>0.458</v>
       </c>
       <c r="F222" t="n">
-        <v>31.17647058823529</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
+        <v>0.421</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>th</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="n">
-        <v>47.3109243697479</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.467</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14.5858140054544</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.722</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.468</v>
       </c>
       <c r="F224" t="n">
-        <v>51.41966264115091</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
+        <v>0.453</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>ur</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="n">
-        <v>62.90514938011452</v>
+      <c r="E225" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>exact_match</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>9.327731092436975</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.679</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.49</v>
       </c>
       <c r="F226" t="n">
-        <v>29.66386554621849</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
+        <v>0.496</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>xquad</t>
+          <t>xnli</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>PivotLang_th_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="n">
-        <v>62.77310924369748</v>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.524</v>
       </c>
     </row>
     <row r="228">
@@ -7038,26 +5901,23 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>17.62899620288385</v>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.527</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.243</v>
       </c>
       <c r="F228" t="n">
-        <v>42.17401240805122</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
+        <v>0.022</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7067,7 +5927,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7075,15 +5935,14 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>PivotLang_th_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="n">
-        <v>68.8569166594376</v>
+      <c r="D229" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.148</v>
       </c>
     </row>
     <row r="230">
@@ -7094,7 +5953,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7103,17 +5962,14 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3.025210084033613</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.418</v>
       </c>
       <c r="F230" t="n">
-        <v>23.19327731092437</v>
-      </c>
-      <c r="G230" t="inlineStr"/>
+        <v>0.049</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7123,23 +5979,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>PivotLang_tr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="n">
-        <v>51.42857142857143</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.182</v>
       </c>
     </row>
     <row r="232">
@@ -7150,26 +6005,23 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>el</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>15.00463466808035</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.524</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.283</v>
       </c>
       <c r="F232" t="n">
-        <v>44.66474186925313</v>
-      </c>
-      <c r="G232" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7179,7 +6031,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>el</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7187,15 +6039,14 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>PivotLang_tr_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="n">
-        <v>67.85947993976929</v>
+      <c r="D233" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.177</v>
       </c>
     </row>
     <row r="234">
@@ -7206,7 +6057,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7215,17 +6066,14 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>4.873949579831932</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.722</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.5629999999999999</v>
       </c>
       <c r="F234" t="n">
-        <v>41.51260504201681</v>
-      </c>
-      <c r="G234" t="inlineStr"/>
+        <v>0.068</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7235,23 +6083,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>en</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="n">
-        <v>59.41176470588236</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="236">
@@ -7262,26 +6109,23 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>22.86488785260154</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.596</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.382</v>
       </c>
       <c r="F236" t="n">
-        <v>64.69925189579946</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
+        <v>0.034</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7291,7 +6135,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>es</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7299,15 +6143,14 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>PivotLang_vi_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="n">
-        <v>77.02384564539214</v>
+      <c r="D237" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.197</v>
       </c>
     </row>
     <row r="238">
@@ -7318,7 +6161,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7327,17 +6170,14 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>4.453781512605042</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.572</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.256</v>
       </c>
       <c r="F238" t="n">
-        <v>33.36134453781513</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7347,23 +6187,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>exact_match</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="n">
-        <v>55.88235294117647</v>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.108</v>
       </c>
     </row>
     <row r="240">
@@ -7374,26 +6213,23 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>f1</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>12.51940506436116</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
+        <v>0.622</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.413</v>
       </c>
       <c r="F240" t="n">
-        <v>40.49603351418742</v>
-      </c>
-      <c r="G240" t="inlineStr"/>
+        <v>0.027</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7403,7 +6239,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7411,292 +6247,275 @@
           <t>f1</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_answer_given_context_and_question_Verbalizer_identity_FewShotK_8</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="n">
-        <v>59.41890089369078</v>
+      <c r="D241" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.178</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.6465916611515553</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>PivotLang_ar_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
+        <v>0.473</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.026</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.7657180675049636</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>PivotLang_en_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
+        <v>0.629</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.146</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>th</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.6909331568497684</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>PivotLang_es_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
+        <v>0.628</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.297</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9073461283917935</v>
-      </c>
-      <c r="G244" t="inlineStr"/>
+        <v>0.093</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>eu</t>
+          <t>th</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.5307743216412971</v>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>PivotLang_eu_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.176</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0.642620780939775</v>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>PivotLang_hi_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
+        <v>0.514</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.232</v>
       </c>
       <c r="F246" t="n">
-        <v>0.7207147584381205</v>
-      </c>
-      <c r="G246" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>tr</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0.6591661151555261</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>PivotLang_id_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
+        <v>0.679</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.5579086697551291</v>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>PivotLang_my_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+        <v>0.594</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.049</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.6532097948378557</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>PivotLang_ru_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
+        <v>0.77</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.229</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>exact_match</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.5466578424884183</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>PivotLang_sw_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>xstory_cloze</t>
+          <t>xquad</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.5440105890138981</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>PivotLang_te_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
+        <v>0.594</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.405</v>
       </c>
       <c r="F251" t="n">
-        <v>0.4109861019192588</v>
-      </c>
-      <c r="G251" t="inlineStr"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7706,26 +6525,275 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.659</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ru</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>sw</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>te</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>xstory_cloze</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
           <t>zh</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>0.7107875579086698</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>PivotLang_zh_PromptName_Answer Given options_Verbalizer_identity_FewShotK_8wthInstruction</t>
-        </is>
-      </c>
-      <c r="F252" t="n">
-        <v>0.8669755129053607</v>
-      </c>
-      <c r="G252" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.711</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
